--- a/data/trans_dic/P36BPD04_R2_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R2_2023-Estudios-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.1982416369479987</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2022451631328366</v>
+        <v>0.2022451631328367</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1763424718974186</v>
+        <v>0.1763838517540561</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1779313460463665</v>
+        <v>0.1767515024338631</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1835175666249041</v>
+        <v>0.1850001575857829</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2448534547277159</v>
+        <v>0.2442238408400332</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2214060319213811</v>
+        <v>0.2211985002602192</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2227448712134604</v>
+        <v>0.2231600925860149</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.2009294420804289</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.205041662440932</v>
+        <v>0.2050416624409321</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2029578771007854</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1810753986144883</v>
+        <v>0.1809421932191691</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.187614962372309</v>
+        <v>0.1891641762195428</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1901553104028458</v>
+        <v>0.1910181948622662</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2213498823052778</v>
+        <v>0.2219909086786453</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2210917958877813</v>
+        <v>0.2223602098591863</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2152834065136248</v>
+        <v>0.218547920516069</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.2158364157259657</v>
+        <v>0.2158364157259656</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.2195672591095768</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1820561057075482</v>
+        <v>0.1828154260660611</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.192414714904505</v>
+        <v>0.1939047479015566</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1961007749967334</v>
+        <v>0.1959956876819871</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2486862881087744</v>
+        <v>0.2493477221490491</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2463592955594616</v>
+        <v>0.2486409367043272</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2402986252584224</v>
+        <v>0.2402479543332694</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1904611386965169</v>
+        <v>0.1900463672145618</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1951047495380973</v>
+        <v>0.1952011849422313</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1961013845728534</v>
+        <v>0.1961607942403669</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2222299888633399</v>
+        <v>0.2211633949512138</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2187917010387102</v>
+        <v>0.2182669110884752</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2156667052357382</v>
+        <v>0.2152138365783195</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>102019</v>
+        <v>102043</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>145997</v>
+        <v>145029</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>256751</v>
+        <v>258825</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>141655</v>
+        <v>141291</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>181669</v>
+        <v>181498</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>311632</v>
+        <v>312213</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>403705</v>
+        <v>403408</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>407174</v>
+        <v>410536</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>836636</v>
+        <v>840432</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>493496</v>
+        <v>494925</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>479828</v>
+        <v>482580</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>947193</v>
+        <v>961556</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>129549</v>
+        <v>130089</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>141401</v>
+        <v>142496</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>283653</v>
+        <v>283501</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>176962</v>
+        <v>177433</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>181044</v>
+        <v>182721</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>347583</v>
+        <v>347510</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>670347</v>
+        <v>668887</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>726895</v>
+        <v>727254</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1420806</v>
+        <v>1421237</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>782161</v>
+        <v>778407</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>815144</v>
+        <v>813189</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1562562</v>
+        <v>1559281</v>
       </c>
     </row>
     <row r="20">
